--- a/tspi/ciclo-1/task3/20105627.xlsx
+++ b/tspi/ciclo-1/task3/20105627.xlsx
@@ -185,7 +185,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
@@ -210,18 +210,18 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
+      <selection activeCell="G11" activeCellId="0" pane="topLeft" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.2666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.70588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.70588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.1333333333333"/>
-    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.4627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.71372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.71372549019608"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.2313725490196"/>
+    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.9843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
